--- a/B题/B2策略.xlsx
+++ b/B题/B2策略.xlsx
@@ -449,14 +449,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>检测零配件1: 是, 检测零配件2: 是, 检测成品: 否, 拆解不合格成品: 是</t>
+          <t>检测零配件1: 否, 检测零配件2: 否, 检测成品: 否, 拆解不合格成品: 否</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -465,11 +465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>检测零配件1: 是, 检测零配件2: 否, 检测成品: 是, 拆解不合格成品: 否</t>
+          <t>检测零配件1: 是, 检测零配件2: 否, 检测成品: 是, 拆解不合格成品: 是</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>620</v>
+        <v>-200</v>
       </c>
       <c r="D3" t="n">
         <v>0.2</v>
@@ -481,14 +481,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>检测零配件1: 是, 检测零配件2: 否, 检测成品: 否, 拆解不合格成品: 否</t>
+          <t>检测零配件1: 是, 检测零配件2: 是, 检测成品: 是, 拆解不合格成品: 是</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -497,14 +497,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>检测零配件1: 是, 检测零配件2: 否, 检测成品: 否, 拆解不合格成品: 是</t>
+          <t>检测零配件1: 否, 检测零配件2: 是, 检测成品: 否, 拆解不合格成品: 是</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -513,11 +513,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>检测零配件1: 是, 检测零配件2: 否, 检测成品: 是, 拆解不合格成品: 是</t>
+          <t>检测零配件1: 否, 检测零配件2: 否, 检测成品: 否, 拆解不合格成品: 否</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1060</v>
+        <v>280</v>
       </c>
       <c r="D6" t="n">
         <v>0.1</v>
@@ -529,14 +529,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>检测零配件1: 否, 检测零配件2: 是, 检测成品: 否, 拆解不合格成品: 是</t>
+          <t>检测零配件1: 是, 检测零配件2: 是, 检测成品: 是, 拆解不合格成品: 是</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4100</v>
+        <v>4020</v>
       </c>
       <c r="D7" t="n">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
